--- a/Config/Datas/FGUI/FguiConfig.xlsx
+++ b/Config/Datas/FGUI/FguiConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>##</t>
   </si>
@@ -45,10 +45,16 @@
     <t>##type</t>
   </si>
   <si>
+    <t>FGUIType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>Id,它和FGUIType的ID直接相关，记得加上对应枚举</t>
   </si>
   <si>
     <t>名字</t>
@@ -131,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -153,6 +159,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -161,6 +168,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -174,8 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +210,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -195,9 +241,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,38 +265,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -251,9 +273,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,37 +297,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,181 +318,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,17 +521,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,8 +535,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +556,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,8 +589,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,17 +618,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,19 +638,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,125 +659,134 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1125,184 +1140,185 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" customWidth="1"/>
+    <col min="7" max="7" width="32.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>9</v>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="56" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="1">
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2">
         <v>2</v>
       </c>
     </row>

--- a/Config/Datas/FGUI/FguiConfig.xlsx
+++ b/Config/Datas/FGUI/FguiConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>##</t>
   </si>
@@ -51,7 +51,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
+    <t>Enums.FGUILayer</t>
   </si>
   <si>
     <t>Id,它和FGUIType的ID直接相关，记得加上对应枚举</t>
@@ -72,7 +72,7 @@
     <t>类名</t>
   </si>
   <si>
-    <t>层级</t>
+    <t>层级，这个枚举在Defines\enums_define.xml中</t>
   </si>
   <si>
     <t>加载中</t>
@@ -90,6 +90,9 @@
     <t>ET.UILoadingComponent</t>
   </si>
   <si>
+    <t>加载</t>
+  </si>
+  <si>
     <t>登陆</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
   </si>
   <si>
     <t>ET.UILoginComponent</t>
+  </si>
+  <si>
+    <t>窗口</t>
   </si>
   <si>
     <t>背景</t>
@@ -139,8 +145,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -159,32 +165,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,9 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,25 +218,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -274,30 +264,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,13 +324,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,19 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,115 +480,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,20 +529,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,17 +566,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,18 +601,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +644,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1140,7 +1146,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1152,7 +1158,7 @@
     <col min="5" max="5" width="31.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
     <col min="7" max="7" width="32.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="33.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1252,8 +1258,8 @@
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2">
-        <v>4</v>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -1261,22 +1267,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1284,19 +1290,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -1304,22 +1310,22 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/FGUI/FguiConfig.xlsx
+++ b/Config/Datas/FGUI/FguiConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>##</t>
   </si>
@@ -36,9 +36,6 @@
     <t>ComponentName</t>
   </si>
   <si>
-    <t>ClassName</t>
-  </si>
-  <si>
     <t>Layer</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>组件名</t>
   </si>
   <si>
-    <t>类名</t>
-  </si>
-  <si>
     <t>层级，这个枚举在Defines\enums_define.xml中</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>UILoadingComponent</t>
   </si>
   <si>
-    <t>ET.UILoadingComponent</t>
-  </si>
-  <si>
     <t>加载</t>
   </si>
   <si>
@@ -105,9 +96,6 @@
     <t>UILoginComponent</t>
   </si>
   <si>
-    <t>ET.UILoginComponent</t>
-  </si>
-  <si>
     <t>窗口</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
   </si>
   <si>
     <t>UILobbyComponent</t>
-  </si>
-  <si>
-    <t>ET.UILobbyComponent</t>
   </si>
 </sst>
 </file>
@@ -143,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -165,16 +150,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,45 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,9 +217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +248,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -263,6 +278,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -272,38 +288,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,19 +309,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,157 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,9 +514,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,34 +589,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1143,13 +1128,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.625" style="2" customWidth="1"/>
@@ -1157,11 +1142,10 @@
     <col min="4" max="4" width="28.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1183,149 +1167,131 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="56" customHeight="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:7">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
